--- a/workingDirectory/Örnek_1.xlsx
+++ b/workingDirectory/Örnek_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Fabrika</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Gönderim Miktarı</t>
-  </si>
-  <si>
-    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -446,29 +443,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
